--- a/packages/backend/src/_static/usagers-import-test/import_ok_2.xlsx
+++ b/packages/backend/src/_static/usagers-import-test/import_ok_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/www/beta/domifa/packages/backend/src/ressources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/_static/usagers-import-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDADC8C6-95EF-404F-BB53-2EEF740BCBF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9D52DE-FA1F-054A-9541-6958ADD18F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
   <si>
     <t>Civilité</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Bouaké, Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>0142424242</t>
   </si>
   <si>
     <t>domicilie2@yopmail.com</t>
@@ -732,9 +729,6 @@
     <t>Amiens</t>
   </si>
   <si>
-    <t>0101010101</t>
-  </si>
-  <si>
     <t>12/12/1999</t>
   </si>
   <si>
@@ -752,11 +746,17 @@
   <si>
     <t>27/02/2018</t>
   </si>
+  <si>
+    <t>dom3@yopmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0#&quot; &quot;##&quot; &quot;##&quot; &quot;##&quot; &quot;##"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1068,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1181,6 +1181,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2942,9 +2949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2984,7 +2991,7 @@
   <sheetData>
     <row r="1" spans="1:49" s="19" customFormat="1" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -3014,10 +3021,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>9</v>
@@ -3026,31 +3033,31 @@
         <v>10</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>135</v>
-      </c>
       <c r="W1" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X1" s="16" t="s">
         <v>12</v>
@@ -3059,28 +3066,28 @@
         <v>13</v>
       </c>
       <c r="Z1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AA1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="AC1" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE1" s="16" t="s">
         <v>14</v>
       </c>
       <c r="AF1" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG1" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH1" s="16" t="s">
         <v>15</v>
@@ -3133,16 +3140,16 @@
     </row>
     <row r="2" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="21" t="s">
@@ -3166,53 +3173,53 @@
         <v>37</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>38</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="V2" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="T2" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" s="22" t="s">
+      <c r="W2" s="22" t="s">
         <v>105</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>106</v>
       </c>
       <c r="X2" s="21" t="s">
         <v>39</v>
       </c>
       <c r="Y2" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z2" s="24"/>
       <c r="AA2" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="24"/>
       <c r="AC2" s="24"/>
       <c r="AD2" s="24"/>
       <c r="AE2" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF2" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG2" s="22"/>
       <c r="AH2" s="22" t="s">
@@ -3250,16 +3257,16 @@
     </row>
     <row r="3" spans="1:49" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="21" t="s">
@@ -3268,11 +3275,11 @@
       <c r="G3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>50</v>
+      <c r="H3" s="41">
+        <v>142424242</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>36</v>
@@ -3280,69 +3287,69 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="O3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="Q3" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="R3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="T3" s="21" t="s">
+      <c r="Y3" s="24" t="s">
         <v>94</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>95</v>
       </c>
       <c r="Z3" s="24"/>
       <c r="AA3" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD3" s="22"/>
       <c r="AE3" s="21"/>
       <c r="AF3" s="22"/>
       <c r="AG3" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH3" s="22" t="s">
         <v>47</v>
       </c>
       <c r="AI3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AJ3" s="22" t="s">
+      <c r="AK3" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="AK3" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="AL3" s="22"/>
       <c r="AM3" s="22"/>
@@ -3359,43 +3366,45 @@
     </row>
     <row r="4" spans="1:49" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>124</v>
-      </c>
       <c r="E4" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="21" t="s">
+      <c r="K4" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21" t="s">
         <v>37</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="37"/>
@@ -3403,37 +3412,37 @@
       <c r="S4" s="22"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
       <c r="X4" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y4" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z4" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB4" s="22"/>
       <c r="AC4" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF4" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="AE4" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF4" s="22" t="s">
+      <c r="AG4" s="22" t="s">
         <v>121</v>
-      </c>
-      <c r="AG4" s="22" t="s">
-        <v>122</v>
       </c>
       <c r="AH4" s="22"/>
       <c r="AI4" s="22"/>
@@ -3454,57 +3463,57 @@
     </row>
     <row r="5" spans="1:49" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>152</v>
+      <c r="H5" s="40">
+        <v>609090909</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>38</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="21"/>
       <c r="U5" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
@@ -3516,11 +3525,11 @@
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
       <c r="AE5" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" s="22"/>
       <c r="AG5" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH5" s="22"/>
       <c r="AI5" s="22"/>
@@ -3548,7 +3557,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
@@ -54351,34 +54360,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -54395,82 +54404,82 @@
         <v>43</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="H3" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -54478,69 +54487,69 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -54548,10 +54557,10 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="9"/>
     </row>
@@ -54564,7 +54573,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="9"/>
     </row>

--- a/packages/backend/src/_static/usagers-import-test/import_ok_2.xlsx
+++ b/packages/backend/src/_static/usagers-import-test/import_ok_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/_static/usagers-import-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E07AD-BF5A-E541-A88C-A4C4695566C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C040E8-B2BE-104F-8F93-6B1EEC6A7C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOMICILIES" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
   <si>
     <t>Civilité</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Sao Paulo, Brésil</t>
-  </si>
-  <si>
-    <t>0142424241</t>
   </si>
   <si>
     <t>domicilie1@yopmail.com</t>
@@ -1118,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1234,9 +1231,6 @@
     <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="22" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1246,48 +1240,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="58">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2040,6 +1992,48 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2813,33 +2807,33 @@
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="La personne a-t-elle des revenus ?" dataDxfId="29"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Seulement si revenus_x000a_De quelle nature ?" dataDxfId="28"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Quel est le lien avec la commune ? _x000a_(Si CCAS ou CIAS)" dataDxfId="27"/>
-    <tableColumn id="50" xr3:uid="{3DB1921C-36CF-7B4B-A99A-34982CF036CA}" name="Si AUTRE lien avec la commune_x000a_précisions" dataDxfId="0"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Composition du ménage" dataDxfId="26"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Situation résidentielle" dataDxfId="25"/>
-    <tableColumn id="45" xr3:uid="{973BA99D-2099-8447-A5F6-C95462E9533B}" name="Si AUTRE situation résidentielle_x000a_précisions" dataDxfId="24"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Cause de l'instabilité_x000a_ du logement" dataDxfId="23"/>
-    <tableColumn id="46" xr3:uid="{CAFD5E43-FC29-714C-BEA8-B5320362468C}" name="Si AUTRE cause d'instabilité_x000a_précisions" dataDxfId="22"/>
-    <tableColumn id="48" xr3:uid="{8A6DC35C-929D-2341-AFBA-85F886983314}" name="Quel est le motif principal de demande de domiciliation ?" dataDxfId="21"/>
-    <tableColumn id="47" xr3:uid="{A55284FD-ADFF-1848-88BD-250C0B85E5E4}" name="Si AUTRE motif,_x000a_précisions" dataDxfId="20"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Accompagnement social" dataDxfId="19"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Seulement si accompagnement_x000a_Par quelle structure est fait l'accompagnement?" dataDxfId="18"/>
-    <tableColumn id="49" xr3:uid="{2432BDAC-54A8-974C-BD03-3795C92EFD8C}" name="Commentaires _x000a_(1000 caractères maximum)" dataDxfId="17"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Nom Ayant-Droit 1" dataDxfId="16"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Prénom Ayant-Droit 1" dataDxfId="15"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Date de Naissance Ayant-Droit 1" dataDxfId="14"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Lien de parenté Ayant-Droit 1" dataDxfId="13"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Nom Ayant-Droit 2" dataDxfId="12"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Prénom Ayant-Droit 2" dataDxfId="11"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Date de Naissance Ayant-Droit 2" dataDxfId="10"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Lien de parenté Ayant-Droit 2" dataDxfId="9"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Nom Ayant-Droit 3" dataDxfId="8"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Prénom Ayant-Droit 3" dataDxfId="7"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Date de Naissance_x000a_Ayant-Droit 3" dataDxfId="6"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Lien de parenté_x000a_Ayant-Droit 3" dataDxfId="5"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Nom Ayant-Droit 4" dataDxfId="4"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Prénom Ayant-Droit 4" dataDxfId="3"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Date de Naissance Ayant-Droit 4" dataDxfId="2"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Lien de parenté Ayant-Droit 4" dataDxfId="1"/>
+    <tableColumn id="50" xr3:uid="{3DB1921C-36CF-7B4B-A99A-34982CF036CA}" name="Si AUTRE lien avec la commune_x000a_précisions" dataDxfId="26"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Composition du ménage" dataDxfId="25"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Situation résidentielle" dataDxfId="24"/>
+    <tableColumn id="45" xr3:uid="{973BA99D-2099-8447-A5F6-C95462E9533B}" name="Si AUTRE situation résidentielle_x000a_précisions" dataDxfId="23"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Cause de l'instabilité_x000a_ du logement" dataDxfId="22"/>
+    <tableColumn id="46" xr3:uid="{CAFD5E43-FC29-714C-BEA8-B5320362468C}" name="Si AUTRE cause d'instabilité_x000a_précisions" dataDxfId="21"/>
+    <tableColumn id="48" xr3:uid="{8A6DC35C-929D-2341-AFBA-85F886983314}" name="Quel est le motif principal de demande de domiciliation ?" dataDxfId="20"/>
+    <tableColumn id="47" xr3:uid="{A55284FD-ADFF-1848-88BD-250C0B85E5E4}" name="Si AUTRE motif,_x000a_précisions" dataDxfId="19"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Accompagnement social" dataDxfId="18"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Seulement si accompagnement_x000a_Par quelle structure est fait l'accompagnement?" dataDxfId="17"/>
+    <tableColumn id="49" xr3:uid="{2432BDAC-54A8-974C-BD03-3795C92EFD8C}" name="Commentaires _x000a_(1000 caractères maximum)" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Nom Ayant-Droit 1" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Prénom Ayant-Droit 1" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Date de Naissance Ayant-Droit 1" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Lien de parenté Ayant-Droit 1" dataDxfId="12"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Nom Ayant-Droit 2" dataDxfId="11"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Prénom Ayant-Droit 2" dataDxfId="10"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Date de Naissance Ayant-Droit 2" dataDxfId="9"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Lien de parenté Ayant-Droit 2" dataDxfId="8"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Nom Ayant-Droit 3" dataDxfId="7"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Prénom Ayant-Droit 3" dataDxfId="6"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Date de Naissance_x000a_Ayant-Droit 3" dataDxfId="5"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Lien de parenté_x000a_Ayant-Droit 3" dataDxfId="4"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Nom Ayant-Droit 4" dataDxfId="3"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Prénom Ayant-Droit 4" dataDxfId="2"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Date de Naissance Ayant-Droit 4" dataDxfId="1"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Lien de parenté Ayant-Droit 4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="DOMICILIES-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3045,9 +3039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1:X11"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3087,7 +3081,7 @@
   <sheetData>
     <row r="1" spans="1:50" s="19" customFormat="1" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -3117,10 +3111,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>9</v>
@@ -3129,34 +3123,34 @@
         <v>10</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>138</v>
+      <c r="W1" s="16" t="s">
+        <v>134</v>
       </c>
-      <c r="U1" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="X1" s="43" t="s">
-        <v>157</v>
+      <c r="X1" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="Y1" s="16" t="s">
         <v>12</v>
@@ -3165,28 +3159,28 @@
         <v>13</v>
       </c>
       <c r="AA1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>134</v>
-      </c>
       <c r="AD1" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF1" s="16" t="s">
         <v>14</v>
       </c>
       <c r="AG1" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH1" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI1" s="16" t="s">
         <v>15</v>
@@ -3239,16 +3233,16 @@
     </row>
     <row r="2" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="21" t="s">
@@ -3257,96 +3251,96 @@
       <c r="G2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="40">
+        <v>609090909</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>36</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>154</v>
+      <c r="P2" s="21" t="s">
+        <v>153</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="Q2" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="W2" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>39</v>
-      </c>
       <c r="Z2" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="24"/>
       <c r="AD2" s="24"/>
       <c r="AE2" s="24"/>
       <c r="AF2" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG2" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH2" s="22"/>
       <c r="AI2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="22" t="s">
+      <c r="AK2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="22" t="s">
+      <c r="AL2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="22" t="s">
+      <c r="AM2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN2" s="22" t="s">
+      <c r="AO2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AO2" s="22" t="s">
-        <v>45</v>
-      </c>
       <c r="AP2" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ2" s="22"/>
       <c r="AR2" s="22"/>
@@ -3359,102 +3353,102 @@
     </row>
     <row r="3" spans="1:50" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="40">
+        <v>609090909</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="41">
-        <v>142424242</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="J3" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="O3" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="Q3" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="R3" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" s="21" t="s">
+      <c r="Z3" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z3" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE3" s="22"/>
       <c r="AF3" s="21"/>
       <c r="AG3" s="22"/>
       <c r="AH3" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI3" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AL3" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="AL3" s="22" t="s">
-        <v>57</v>
       </c>
       <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
@@ -3471,45 +3465,45 @@
     </row>
     <row r="4" spans="1:50" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>121</v>
-      </c>
       <c r="E4" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="37"/>
@@ -3517,38 +3511,38 @@
       <c r="S4" s="22"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
       <c r="Y4" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z4" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA4" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE4" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG4" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="AF4" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG4" s="22" t="s">
+      <c r="AH4" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="AH4" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="AI4" s="22"/>
       <c r="AJ4" s="22"/>
@@ -3569,57 +3563,57 @@
     </row>
     <row r="5" spans="1:50" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H5" s="40">
         <v>609090909</v>
       </c>
-      <c r="I5" s="42"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P5" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q5" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="Q5" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="R5" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="21"/>
       <c r="U5" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
@@ -3632,11 +3626,11 @@
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG5" s="22"/>
       <c r="AH5" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AI5" s="22"/>
       <c r="AJ5" s="22"/>
@@ -55461,126 +55455,126 @@
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="H3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -55588,69 +55582,69 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -55658,10 +55652,10 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" s="9"/>
     </row>
@@ -55674,7 +55668,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" s="9"/>
     </row>
